--- a/design/MiniTemplate/Excels/#achieve.xlsx
+++ b/design/MiniTemplate/Excels/#achieve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097DB95-89E4-4322-9B07-C3A8985A347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C143BCB-0ED1-44DE-8B34-DD2409F9AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -254,9 +254,6 @@
     <t>奖励:随机图鉴解锁</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>奖励:最大等级+10</t>
   </si>
   <si>
@@ -272,6 +269,76 @@
   <si>
     <t>boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>h129</t>
+  </si>
+  <si>
+    <t>h105</t>
+  </si>
+  <si>
+    <t>h88</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h31</t>
+  </si>
+  <si>
+    <t>h87</t>
+  </si>
+  <si>
+    <t>h139</t>
+  </si>
+  <si>
+    <t>h101</t>
+  </si>
+  <si>
+    <t>h79</t>
+  </si>
+  <si>
+    <t>h125</t>
+  </si>
+  <si>
+    <t>h140</t>
+  </si>
+  <si>
+    <t>h48</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h35</t>
+  </si>
+  <si>
+    <t>h27</t>
+  </si>
+  <si>
+    <t>h44</t>
+  </si>
+  <si>
+    <t>h52</t>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
   </si>
 </sst>
 </file>
@@ -678,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -866,10 +933,10 @@
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -906,10 +973,10 @@
         <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,10 +1013,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -986,10 +1053,10 @@
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,10 +1093,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1066,10 +1133,10 @@
         <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1106,10 +1173,10 @@
         <v>36</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1146,10 +1213,10 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1179,8 +1246,8 @@
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
-        <v>129</v>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="1">
         <v>20</v>
@@ -1202,8 +1269,8 @@
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1">
-        <v>105</v>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="1">
         <v>20</v>
@@ -1225,8 +1292,8 @@
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1">
-        <v>88</v>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E27" s="1">
         <v>20</v>
@@ -1248,8 +1315,8 @@
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="1">
-        <v>3</v>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
@@ -1271,8 +1338,8 @@
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1">
-        <v>31</v>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
@@ -1294,8 +1361,8 @@
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
-        <v>87</v>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
@@ -1317,8 +1384,8 @@
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1">
-        <v>139</v>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -1340,8 +1407,8 @@
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="1">
-        <v>101</v>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
@@ -1363,8 +1430,8 @@
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="1">
-        <v>79</v>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -1386,8 +1453,8 @@
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1">
-        <v>125</v>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1409,8 +1476,8 @@
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1">
-        <v>140</v>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1432,8 +1499,8 @@
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="1">
-        <v>48</v>
+      <c r="D36" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1455,8 +1522,8 @@
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="1">
-        <v>11</v>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1478,8 +1545,8 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="1">
-        <v>35</v>
+      <c r="D38" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1501,8 +1568,8 @@
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="1">
-        <v>27</v>
+      <c r="D39" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1524,8 +1591,8 @@
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="1">
-        <v>44</v>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1547,8 +1614,8 @@
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="1">
-        <v>52</v>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1577,10 +1644,10 @@
         <v>57</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1597,10 +1664,10 @@
         <v>58</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1617,10 +1684,10 @@
         <v>59</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1630,8 +1697,8 @@
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1">
-        <v>141</v>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1640,10 +1707,10 @@
         <v>60</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -1653,8 +1720,8 @@
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="1">
-        <v>142</v>
+      <c r="D46" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1676,8 +1743,8 @@
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="1">
-        <v>143</v>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -1686,10 +1753,10 @@
         <v>62</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -1699,8 +1766,8 @@
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="1">
-        <v>144</v>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1709,10 +1776,10 @@
         <v>63</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -1722,8 +1789,8 @@
       <c r="C49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="1">
-        <v>145</v>
+      <c r="D49" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1732,10 +1799,10 @@
         <v>64</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
